--- a/bin/Debug/test_output.xlsx
+++ b/bin/Debug/test_output.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7189" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7189" uniqueCount="948">
   <si>
     <t xml:space="preserve">№ накладной</t>
   </si>
@@ -1317,871 +1317,874 @@
     <t xml:space="preserve">0001-Р-03-00-ТХ</t>
   </si>
   <si>
-    <t xml:space="preserve">0001-Р-03-00-АК_Л.0001-Р-03-00-AK _01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-03-00-АК_Л.0001-Р-03-00-AK _02</t>
+    <t xml:space="preserve">0001-Р-03-00-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-03-00-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-03-00-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-03-00-НК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обустройство площадки скважины №3 К-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-01-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-01-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-01-ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-00-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-00-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-00-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-00-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-04-00-НК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обустройство площадки скважины №4 К-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-01-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-01-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-00-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-00-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-00-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-00-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-05-00-НК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обустройство площадки скважины №5 К-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-01-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-01-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-01-ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-00-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-00-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-00-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-00-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-06-00-НК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-07-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УДХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-07-01-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка в файле описи листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-07-01-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-07-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-07-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-07-01-ОПС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-08-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система технологического видеонаблюдения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-08-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-08-01-СТВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-09-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок автоматики К-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-09-01-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-09-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-Р-09-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-ЭМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Капитоновское месторождение. Автономный энергокомплекс. Технологическое присоединение к внешним электрическим сетям.»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок бокс КРУН -10 кВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\10\5-РД\Реестр РД (8).xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-02-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кабель связи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-02-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16.11018.4168-Р-СМ-СМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шифр:2017/4201/ГПНО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-001-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Капитоновское месторождение. УПН-230. КНС №2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кустовая насосная станция №2 (КНС №2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\11\5-РД\Реестр РД (9).xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-001-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-001-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-001-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-001-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-С-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книга спецификаций оборудования, изделий и материлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-С-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-С-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-ОЛ-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книга  опросных  листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-ОЛ-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-01-ОЛ-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-001-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путевой подогреватель нефти П-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-001-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-001-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-001-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-001-НВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-001-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-С-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-С-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-С-НВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-С-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-ОЛ-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-ОЛ-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-02-ОЛ-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Резервуар противопожарного запаса воды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.1.1-1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Однолинейная схема электроснабжения проектируемых электроприёмников </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Схема электрическая принципиальная существующего щита ЩРз-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План прокладки электрических сетей по территории УПН-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План заземления проектируемых площадок на территории УПН-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-С-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-С-ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-С-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-ОЛ-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книга опросных листов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-03-ОЛ-ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/4201-СМ-СМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\2\5-РД\Реестр РД.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-01-АС_Л.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-01-АС_Л.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Площадка приустьевая нефтяной скважины №5305. План площадки, план раскладки бетонных блоков.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-28-ГП_Л.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-28-ГП_Л.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разбивочный план.  Сводный план инженерных сетей. 1:500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-01-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Капитоновское месторождение. Автомобильные дороги</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\3\5-РД\Реестр РД (1).xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-01-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-02-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к площадке АГЗУ-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-02-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-02-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-03-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-03-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-03-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-03-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-03-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-04-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5317 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-04-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-04-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-05-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5312 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-05-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-05-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-05-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-05-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-06-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-06-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-06-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-06-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-06-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-07-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-07-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-07-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-07-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-07-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-08-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-08-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-08-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-08-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-09-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-09-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-09-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-10-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога от УПН230 к скважине 5332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-10-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-10-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-10-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-10-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-11-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к площадке АГЗУ-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-11-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-11-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-11-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-11-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-12-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-12-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-12-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-12-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-12-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-13-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-13-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-13-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-14-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5328 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-14-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-14-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-15-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к площадке АГЗУ-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-15-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-15-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-15-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-15-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-16-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5330 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-16-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-16-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-16-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-16-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-17-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автомобильная дорога к скважине 5334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-17-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-17-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-17-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01.С-АД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книга спецификаций оборудования, изделий и материалов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01.С-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01.С-ЭВ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/0034/ГПНО-01-СМ-СМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАПИТОНОВСКОЕ МЕСТОРОЖДЕНИЕ. ТЕЛЕМЕХАНИКА СИСТЕМЫ СБОРА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПН-230. Блок-бокс ТЛМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\4\5-РД\Реестр РД (2).xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-АТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-02-АТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПН-230. Площадка шурфов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-02-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-03-АТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УПН-230. АГЗУ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-03-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-04-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АГЗУ 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-04-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-05-АТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АГЗУ-2, АГЗУ-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-05-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-05-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-06-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АГЗУ 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-06-ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01.С-АТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Книга спецификаций оборудования, изелий и материалов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01.С-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01.С-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-ОЛ-АТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-ОЛ-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-СМ-СМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-001--ГП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Капитоновское месторождение. Перевод скважины №5318 под утилизацию подтоварной воды"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Площадка поглощающей скважины №5318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\5\5-РД\Реестр РД (3).xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-001--ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-001--АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-001--СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-001--ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-001--ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-002--ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Водовод высокого давления от ВРП до скважины № 5318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-002--ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-003--ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Демонтаж существующего трубопровода от скважины №5318 до АГЗУ-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-(марка).С-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-(марка).С-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-(марка).С-СС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-(марка).С-ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-(марка).ОЛ-ТХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-(марка).ОЛ-АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0556-СМ-СМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сводный сметный расчет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-001--АК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Капитоновское месторождение. Сети автоматизации установки подготовки нефти (УПН) на площадке скв. № 230. Реконструкция"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сети автоматизации установки подготовки нефти (УПН) на площадке скв. № 230. Реконструкция.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\6\5-РД\Реестр РД (4).xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-001--АС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-001--ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-001--ЛС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обустройство площадки скважины №230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Схема соединения внешних проводок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План расположения оборудования </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-04</t>
   </si>
   <si>
     <t xml:space="preserve">План межплощадочных кабельных проводок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-03-00-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-03-00-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-03-00-НК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обустройство площадки скважины №3 К-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-01-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-01-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-01-ПТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-00-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-00-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-00-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-00-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-04-00-НК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обустройство площадки скважины №4 К-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-01-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-01-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-00-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-00-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-00-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-00-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-05-00-НК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обустройство площадки скважины №5 К-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-01-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-01-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-01-ПТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-00-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-00-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-00-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-00-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-06-00-НК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-07-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УДХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-07-01-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-07-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-07-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-07-01-ОПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-08-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Система технологического видеонаблюдения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-08-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-08-01-СТВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-09-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок автоматики К-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-09-01-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-09-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0001-Р-09-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-ЭМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">«Капитоновское месторождение. Автономный энергокомплекс. Технологическое присоединение к внешним электрическим сетям.»</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок бокс КРУН -10 кВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\10\5-РД\Реестр РД (8).xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-01-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-02-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кабель связи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-02-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16.11018.4168-Р-СМ-СМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шифр:2017/4201/ГПНО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-001-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Капитоновское месторождение. УПН-230. КНС №2"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кустовая насосная станция №2 (КНС №2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\11\5-РД\Реестр РД (9).xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-001-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-001-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-001-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-001-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-С-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Книга спецификаций оборудования, изделий и материлов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-С-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-С-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-ОЛ-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Книга  опросных  листов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-ОЛ-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-01-ОЛ-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-001-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Путевой подогреватель нефти П-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-001-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-001-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-001-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-001-НВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-001-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-С-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-С-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-С-НВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-С-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-ОЛ-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-ОЛ-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-02-ОЛ-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Резервуар противопожарного запаса воды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ПТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.1.1-1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Однолинейная схема электроснабжения проектируемых электроприёмников </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Схема электрическая принципиальная существующего щита ЩРз-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">План прокладки электрических сетей по территории УПН-230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-001-ЭС_Л.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">План заземления проектируемых площадок на территории УПН-230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-С-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-С-ПТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-С-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-ОЛ-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Книга опросных листов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-03-ОЛ-ПТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/4201-СМ-СМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\2\5-РД\Реестр РД.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-01-АС_Л.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-01-АС_Л.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадка приустьевая нефтяной скважины №5305. План площадки, план раскладки бетонных блоков.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-28-ГП_Л.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-28-ГП_Л.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разбивочный план.  Сводный план инженерных сетей. 1:500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-01-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Капитоновское месторождение. Автомобильные дороги</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\3\5-РД\Реестр РД (1).xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-01-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-02-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к площадке АГЗУ-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-02-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-02-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-03-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5333 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-03-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-03-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-03-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-03-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-04-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5317 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-04-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-04-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-05-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5312 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-05-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-05-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-05-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-05-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-06-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-06-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-06-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-06-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-06-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-07-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-07-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-07-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-07-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-07-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-08-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-08-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-08-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-08-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-09-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-09-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-09-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-10-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога от УПН230 к скважине 5332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-10-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-10-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-10-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-10-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-11-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к площадке АГЗУ-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-11-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-11-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-11-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-11-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-12-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5351 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-12-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-12-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-12-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-12-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-13-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-13-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-13-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-14-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5328 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-14-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-14-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-15-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к площадке АГЗУ-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-15-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-15-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-15-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-15-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-16-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5330 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-16-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-16-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-16-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-16-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-17-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Автомобильная дорога к скважине 5334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-17-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-17-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-17-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01.С-АД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Книга спецификаций оборудования, изделий и материалов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01.С-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01.С-ЭВ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015/0034/ГПНО-01-СМ-СМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КАПИТОНОВСКОЕ МЕСТОРОЖДЕНИЕ. ТЕЛЕМЕХАНИКА СИСТЕМЫ СБОРА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПН-230. Блок-бокс ТЛМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\4\5-РД\Реестр РД (2).xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-АТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-01-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-02-АТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПН-230. Площадка шурфов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-02-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-03-АТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УПН-230. АГЗУ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-03-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-04-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АГЗУ 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-04-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-05-АТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АГЗУ-2, АГЗУ-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-05-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-05-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-06-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АГЗУ 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-06-ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01.С-АТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Книга спецификаций оборудования, изелий и материалов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01.С-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01.С-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-ОЛ-АТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-ОЛ-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОРБ-16/07200/0111/Р/01-СМ-СМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-001--ГП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Капитоновское месторождение. Перевод скважины №5318 под утилизацию подтоварной воды"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Площадка поглощающей скважины №5318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\5\5-РД\Реестр РД (3).xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-001--ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-001--АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-001--СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-001--ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-001--ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-002--ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Водовод высокого давления от ВРП до скважины № 5318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-002--ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-003--ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Демонтаж существующего трубопровода от скважины №5318 до АГЗУ-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-(марка).С-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-(марка).С-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-(марка).С-СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-(марка).С-ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-(марка).ОЛ-ТХ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-(марка).ОЛ-АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0556-СМ-СМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сводный сметный расчет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-001--АК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Капитоновское месторождение. Сети автоматизации установки подготовки нефти (УПН) на площадке скв. № 230. Реконструкция"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сети автоматизации установки подготовки нефти (УПН) на площадке скв. № 230. Реконструкция.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C:\Users\Алёша\Desktop\git reestr\registry\bin\Debug\Новая папка\Новая папка\6\5-РД\Реестр РД (4).xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-001--АС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-001--ЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-001--ЛС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обустройство площадки скважины №230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Схема соединения внешних проводок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">План расположения оборудования </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-04</t>
   </si>
   <si>
     <t xml:space="preserve">2017/0558-002--АК_Л.2017/0558-002-АК-05</t>
@@ -4879,7 +4882,7 @@
         <v>400</v>
       </c>
       <c r="I36" s="80" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S36" s="80" t="s">
         <v>388</v>
@@ -4905,7 +4908,7 @@
         <v>400</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="S37" s="80" t="s">
         <v>388</v>
@@ -4925,7 +4928,7 @@
         <v>390</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H38" s="80" t="s">
         <v>400</v>
@@ -4951,7 +4954,7 @@
         <v>390</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H39" s="80" t="s">
         <v>400</v>
@@ -4977,10 +4980,10 @@
         <v>390</v>
       </c>
       <c r="G40" s="80" t="s">
+        <v>436</v>
+      </c>
+      <c r="H40" s="80" t="s">
         <v>437</v>
-      </c>
-      <c r="H40" s="80" t="s">
-        <v>400</v>
       </c>
       <c r="I40" s="80" t="s">
         <v>37</v>
@@ -5006,7 +5009,7 @@
         <v>438</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I41" s="80" t="s">
         <v>37</v>
@@ -5029,10 +5032,10 @@
         <v>390</v>
       </c>
       <c r="G42" s="80" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H42" s="80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I42" s="80" t="s">
         <v>37</v>
@@ -5055,10 +5058,10 @@
         <v>390</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I43" s="80" t="s">
         <v>37</v>
@@ -5081,10 +5084,10 @@
         <v>390</v>
       </c>
       <c r="G44" s="80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H44" s="80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I44" s="80" t="s">
         <v>37</v>
@@ -5107,10 +5110,10 @@
         <v>390</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I45" s="80" t="s">
         <v>37</v>
@@ -5133,10 +5136,10 @@
         <v>390</v>
       </c>
       <c r="G46" s="80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H46" s="80" t="s">
-        <v>439</v>
+        <v>400</v>
       </c>
       <c r="I46" s="80" t="s">
         <v>37</v>
@@ -5159,7 +5162,7 @@
         <v>390</v>
       </c>
       <c r="G47" s="80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H47" s="80" t="s">
         <v>400</v>
@@ -5185,7 +5188,7 @@
         <v>390</v>
       </c>
       <c r="G48" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H48" s="80" t="s">
         <v>400</v>
@@ -5211,7 +5214,7 @@
         <v>390</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>400</v>
@@ -5237,7 +5240,7 @@
         <v>390</v>
       </c>
       <c r="G50" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H50" s="80" t="s">
         <v>400</v>
@@ -5263,10 +5266,10 @@
         <v>390</v>
       </c>
       <c r="G51" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="H51" s="80" t="s">
         <v>449</v>
-      </c>
-      <c r="H51" s="80" t="s">
-        <v>400</v>
       </c>
       <c r="I51" s="80" t="s">
         <v>37</v>
@@ -5292,7 +5295,7 @@
         <v>450</v>
       </c>
       <c r="H52" s="80" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I52" s="80" t="s">
         <v>37</v>
@@ -5315,10 +5318,10 @@
         <v>390</v>
       </c>
       <c r="G53" s="80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H53" s="80" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I53" s="80" t="s">
         <v>37</v>
@@ -5341,10 +5344,10 @@
         <v>390</v>
       </c>
       <c r="G54" s="80" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H54" s="80" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I54" s="80" t="s">
         <v>37</v>
@@ -5367,10 +5370,10 @@
         <v>390</v>
       </c>
       <c r="G55" s="80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H55" s="80" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I55" s="80" t="s">
         <v>37</v>
@@ -5393,10 +5396,10 @@
         <v>390</v>
       </c>
       <c r="G56" s="80" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H56" s="80" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="I56" s="80" t="s">
         <v>37</v>
@@ -5419,7 +5422,7 @@
         <v>390</v>
       </c>
       <c r="G57" s="80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H57" s="80" t="s">
         <v>400</v>
@@ -5445,7 +5448,7 @@
         <v>390</v>
       </c>
       <c r="G58" s="80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H58" s="80" t="s">
         <v>400</v>
@@ -5471,7 +5474,7 @@
         <v>390</v>
       </c>
       <c r="G59" s="80" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H59" s="80" t="s">
         <v>400</v>
@@ -5497,7 +5500,7 @@
         <v>390</v>
       </c>
       <c r="G60" s="80" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H60" s="80" t="s">
         <v>400</v>
@@ -5523,10 +5526,10 @@
         <v>390</v>
       </c>
       <c r="G61" s="80" t="s">
+        <v>459</v>
+      </c>
+      <c r="H61" s="80" t="s">
         <v>460</v>
-      </c>
-      <c r="H61" s="80" t="s">
-        <v>400</v>
       </c>
       <c r="I61" s="80" t="s">
         <v>37</v>
@@ -5552,7 +5555,7 @@
         <v>461</v>
       </c>
       <c r="H62" s="80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I62" s="80" t="s">
         <v>37</v>
@@ -5575,10 +5578,10 @@
         <v>390</v>
       </c>
       <c r="G63" s="80" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H63" s="80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I63" s="80" t="s">
         <v>37</v>
@@ -5601,10 +5604,10 @@
         <v>390</v>
       </c>
       <c r="G64" s="80" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H64" s="80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I64" s="80" t="s">
         <v>37</v>
@@ -5627,10 +5630,10 @@
         <v>390</v>
       </c>
       <c r="G65" s="80" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I65" s="80" t="s">
         <v>37</v>
@@ -5653,10 +5656,10 @@
         <v>390</v>
       </c>
       <c r="G66" s="80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H66" s="80" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I66" s="80" t="s">
         <v>37</v>
@@ -5679,10 +5682,10 @@
         <v>390</v>
       </c>
       <c r="G67" s="80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H67" s="80" t="s">
-        <v>462</v>
+        <v>400</v>
       </c>
       <c r="I67" s="80" t="s">
         <v>37</v>
@@ -5705,7 +5708,7 @@
         <v>390</v>
       </c>
       <c r="G68" s="80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H68" s="80" t="s">
         <v>400</v>
@@ -5731,7 +5734,7 @@
         <v>390</v>
       </c>
       <c r="G69" s="80" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H69" s="80" t="s">
         <v>400</v>
@@ -5757,7 +5760,7 @@
         <v>390</v>
       </c>
       <c r="G70" s="80" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H70" s="80" t="s">
         <v>400</v>
@@ -5783,7 +5786,7 @@
         <v>390</v>
       </c>
       <c r="G71" s="80" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H71" s="80" t="s">
         <v>400</v>
@@ -5809,10 +5812,10 @@
         <v>390</v>
       </c>
       <c r="G72" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="H72" s="80" t="s">
         <v>472</v>
-      </c>
-      <c r="H72" s="80" t="s">
-        <v>400</v>
       </c>
       <c r="I72" s="80" t="s">
         <v>37</v>
@@ -5838,10 +5841,10 @@
         <v>473</v>
       </c>
       <c r="H73" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="I73" s="80" t="s">
         <v>474</v>
-      </c>
-      <c r="I73" s="80" t="s">
-        <v>37</v>
       </c>
       <c r="S73" s="80" t="s">
         <v>388</v>
@@ -5864,7 +5867,7 @@
         <v>475</v>
       </c>
       <c r="H74" s="80" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I74" s="80" t="s">
         <v>37</v>
@@ -5890,7 +5893,7 @@
         <v>476</v>
       </c>
       <c r="H75" s="80" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I75" s="80" t="s">
         <v>37</v>
@@ -5916,7 +5919,7 @@
         <v>477</v>
       </c>
       <c r="H76" s="80" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I76" s="80" t="s">
         <v>37</v>
@@ -5942,7 +5945,7 @@
         <v>478</v>
       </c>
       <c r="H77" s="80" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I77" s="80" t="s">
         <v>37</v>
@@ -17397,7 +17400,7 @@
         <v>715</v>
       </c>
       <c r="I557" s="80" t="s">
-        <v>434</v>
+        <v>721</v>
       </c>
       <c r="S557" s="80" t="s">
         <v>388</v>
@@ -17415,13 +17418,13 @@
         <v>708</v>
       </c>
       <c r="G558" s="80" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H558" s="80" t="s">
         <v>715</v>
       </c>
       <c r="I558" s="80" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="S558" s="80" t="s">
         <v>388</v>
@@ -17439,13 +17442,13 @@
         <v>708</v>
       </c>
       <c r="G559" s="80" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H559" s="80" t="s">
         <v>715</v>
       </c>
       <c r="I559" s="80" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="S559" s="80" t="s">
         <v>388</v>
@@ -17463,7 +17466,7 @@
         <v>708</v>
       </c>
       <c r="G560" s="80" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H560" s="80" t="s">
         <v>715</v>
@@ -17485,7 +17488,7 @@
         <v>708</v>
       </c>
       <c r="G561" s="80" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H561" s="80" t="s">
         <v>679</v>
@@ -17509,7 +17512,7 @@
         <v>708</v>
       </c>
       <c r="G562" s="80" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H562" s="80" t="s">
         <v>679</v>
@@ -17533,7 +17536,7 @@
         <v>708</v>
       </c>
       <c r="G563" s="80" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H563" s="80" t="s">
         <v>513</v>
@@ -17557,7 +17560,7 @@
         <v>708</v>
       </c>
       <c r="G564" s="80" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H564" s="80" t="s">
         <v>513</v>
@@ -17581,7 +17584,7 @@
         <v>708</v>
       </c>
       <c r="G565" s="80" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H565" s="80" t="s">
         <v>513</v>
@@ -17605,7 +17608,7 @@
         <v>708</v>
       </c>
       <c r="G566" s="80" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H566" s="80" t="s">
         <v>706</v>
@@ -17625,16 +17628,16 @@
         <v>392</v>
       </c>
       <c r="E567" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F567" s="80" t="s">
+        <v>735</v>
+      </c>
+      <c r="G567" s="80" t="s">
         <v>734</v>
       </c>
-      <c r="G567" s="80" t="s">
-        <v>733</v>
-      </c>
       <c r="H567" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I567" s="80" t="s">
         <v>37</v>
@@ -17643,7 +17646,7 @@
         <v>388</v>
       </c>
       <c r="T567" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="568">
@@ -17651,25 +17654,25 @@
         <v>392</v>
       </c>
       <c r="E568" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F568" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G568" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="H568" s="80" t="s">
+        <v>739</v>
+      </c>
+      <c r="I568" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="S568" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="T568" s="79" t="s">
         <v>737</v>
-      </c>
-      <c r="H568" s="80" t="s">
-        <v>738</v>
-      </c>
-      <c r="I568" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="S568" s="80" t="s">
-        <v>388</v>
-      </c>
-      <c r="T568" s="79" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="569">
@@ -17677,17 +17680,17 @@
         <v>392</v>
       </c>
       <c r="E569" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F569" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G569" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="H569" s="80" t="s">
         <v>739</v>
       </c>
-      <c r="H569" s="80" t="s">
-        <v>738</v>
-      </c>
       <c r="I569" s="80" t="s">
         <v>37</v>
       </c>
@@ -17695,7 +17698,7 @@
         <v>388</v>
       </c>
       <c r="T569" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="570">
@@ -17703,16 +17706,16 @@
         <v>392</v>
       </c>
       <c r="E570" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F570" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G570" s="80" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H570" s="80" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I570" s="80" t="s">
         <v>37</v>
@@ -17721,7 +17724,7 @@
         <v>388</v>
       </c>
       <c r="T570" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="571">
@@ -17729,16 +17732,16 @@
         <v>392</v>
       </c>
       <c r="E571" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F571" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G571" s="80" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H571" s="80" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I571" s="80" t="s">
         <v>37</v>
@@ -17747,7 +17750,7 @@
         <v>388</v>
       </c>
       <c r="T571" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="572">
@@ -17755,16 +17758,16 @@
         <v>392</v>
       </c>
       <c r="E572" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F572" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G572" s="80" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H572" s="80" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I572" s="80" t="s">
         <v>37</v>
@@ -17773,7 +17776,7 @@
         <v>388</v>
       </c>
       <c r="T572" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="573">
@@ -17781,13 +17784,13 @@
         <v>392</v>
       </c>
       <c r="E573" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F573" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G573" s="80" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H573" s="80" t="s">
         <v>400</v>
@@ -17799,7 +17802,7 @@
         <v>388</v>
       </c>
       <c r="T573" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="574">
@@ -17807,13 +17810,13 @@
         <v>392</v>
       </c>
       <c r="E574" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F574" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G574" s="80" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H574" s="80" t="s">
         <v>400</v>
@@ -17825,7 +17828,7 @@
         <v>388</v>
       </c>
       <c r="T574" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="575">
@@ -17833,13 +17836,13 @@
         <v>392</v>
       </c>
       <c r="E575" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F575" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G575" s="80" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H575" s="80" t="s">
         <v>400</v>
@@ -17851,7 +17854,7 @@
         <v>388</v>
       </c>
       <c r="T575" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="576">
@@ -17859,13 +17862,13 @@
         <v>392</v>
       </c>
       <c r="E576" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F576" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G576" s="80" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H576" s="80" t="s">
         <v>400</v>
@@ -17877,7 +17880,7 @@
         <v>388</v>
       </c>
       <c r="T576" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="577">
@@ -17885,16 +17888,16 @@
         <v>392</v>
       </c>
       <c r="E577" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F577" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G577" s="80" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H577" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I577" s="80" t="s">
         <v>37</v>
@@ -17903,7 +17906,7 @@
         <v>388</v>
       </c>
       <c r="T577" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="578">
@@ -17911,16 +17914,16 @@
         <v>392</v>
       </c>
       <c r="E578" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F578" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G578" s="80" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H578" s="80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I578" s="80" t="s">
         <v>37</v>
@@ -17929,7 +17932,7 @@
         <v>388</v>
       </c>
       <c r="T578" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="579">
@@ -17937,17 +17940,17 @@
         <v>392</v>
       </c>
       <c r="E579" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F579" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G579" s="80" t="s">
+        <v>751</v>
+      </c>
+      <c r="H579" s="80" t="s">
         <v>750</v>
       </c>
-      <c r="H579" s="80" t="s">
-        <v>749</v>
-      </c>
       <c r="I579" s="80" t="s">
         <v>37</v>
       </c>
@@ -17955,7 +17958,7 @@
         <v>388</v>
       </c>
       <c r="T579" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="580">
@@ -17963,16 +17966,16 @@
         <v>392</v>
       </c>
       <c r="E580" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F580" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G580" s="80" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H580" s="80" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I580" s="80" t="s">
         <v>37</v>
@@ -17981,7 +17984,7 @@
         <v>388</v>
       </c>
       <c r="T580" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="581">
@@ -17989,16 +17992,16 @@
         <v>392</v>
       </c>
       <c r="E581" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F581" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G581" s="80" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H581" s="80" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I581" s="80" t="s">
         <v>37</v>
@@ -18007,7 +18010,7 @@
         <v>388</v>
       </c>
       <c r="T581" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="582">
@@ -18015,17 +18018,17 @@
         <v>392</v>
       </c>
       <c r="E582" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F582" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G582" s="80" t="s">
+        <v>755</v>
+      </c>
+      <c r="H582" s="80" t="s">
         <v>754</v>
       </c>
-      <c r="H582" s="80" t="s">
-        <v>753</v>
-      </c>
       <c r="I582" s="80" t="s">
         <v>37</v>
       </c>
@@ -18033,7 +18036,7 @@
         <v>388</v>
       </c>
       <c r="T582" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="583">
@@ -18041,16 +18044,16 @@
         <v>392</v>
       </c>
       <c r="E583" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F583" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G583" s="80" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H583" s="80" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I583" s="80" t="s">
         <v>37</v>
@@ -18059,7 +18062,7 @@
         <v>388</v>
       </c>
       <c r="T583" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="584">
@@ -18067,16 +18070,16 @@
         <v>392</v>
       </c>
       <c r="E584" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F584" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G584" s="80" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H584" s="80" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I584" s="80" t="s">
         <v>37</v>
@@ -18085,7 +18088,7 @@
         <v>388</v>
       </c>
       <c r="T584" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="585">
@@ -18093,16 +18096,16 @@
         <v>392</v>
       </c>
       <c r="E585" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F585" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G585" s="80" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H585" s="80" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="I585" s="80" t="s">
         <v>37</v>
@@ -18111,7 +18114,7 @@
         <v>388</v>
       </c>
       <c r="T585" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="586">
@@ -18119,16 +18122,16 @@
         <v>392</v>
       </c>
       <c r="E586" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F586" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G586" s="80" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H586" s="80" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I586" s="80" t="s">
         <v>37</v>
@@ -18137,7 +18140,7 @@
         <v>388</v>
       </c>
       <c r="T586" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="587">
@@ -18145,17 +18148,17 @@
         <v>392</v>
       </c>
       <c r="E587" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F587" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G587" s="80" t="s">
+        <v>761</v>
+      </c>
+      <c r="H587" s="80" t="s">
         <v>760</v>
       </c>
-      <c r="H587" s="80" t="s">
-        <v>759</v>
-      </c>
       <c r="I587" s="80" t="s">
         <v>37</v>
       </c>
@@ -18163,7 +18166,7 @@
         <v>388</v>
       </c>
       <c r="T587" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="588">
@@ -18171,16 +18174,16 @@
         <v>392</v>
       </c>
       <c r="E588" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F588" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G588" s="80" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H588" s="80" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I588" s="80" t="s">
         <v>37</v>
@@ -18189,7 +18192,7 @@
         <v>388</v>
       </c>
       <c r="T588" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="589">
@@ -18197,16 +18200,16 @@
         <v>392</v>
       </c>
       <c r="E589" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F589" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G589" s="80" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H589" s="80" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I589" s="80" t="s">
         <v>37</v>
@@ -18215,7 +18218,7 @@
         <v>388</v>
       </c>
       <c r="T589" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="590">
@@ -18223,16 +18226,16 @@
         <v>392</v>
       </c>
       <c r="E590" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F590" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G590" s="80" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H590" s="80" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I590" s="80" t="s">
         <v>37</v>
@@ -18241,7 +18244,7 @@
         <v>388</v>
       </c>
       <c r="T590" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="591">
@@ -18249,16 +18252,16 @@
         <v>392</v>
       </c>
       <c r="E591" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F591" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G591" s="80" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H591" s="80" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I591" s="80" t="s">
         <v>37</v>
@@ -18267,7 +18270,7 @@
         <v>388</v>
       </c>
       <c r="T591" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="592">
@@ -18275,17 +18278,17 @@
         <v>392</v>
       </c>
       <c r="E592" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F592" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G592" s="80" t="s">
+        <v>767</v>
+      </c>
+      <c r="H592" s="80" t="s">
         <v>766</v>
       </c>
-      <c r="H592" s="80" t="s">
-        <v>765</v>
-      </c>
       <c r="I592" s="80" t="s">
         <v>37</v>
       </c>
@@ -18293,7 +18296,7 @@
         <v>388</v>
       </c>
       <c r="T592" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="593">
@@ -18301,16 +18304,16 @@
         <v>392</v>
       </c>
       <c r="E593" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F593" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G593" s="80" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H593" s="80" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I593" s="80" t="s">
         <v>37</v>
@@ -18319,7 +18322,7 @@
         <v>388</v>
       </c>
       <c r="T593" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="594">
@@ -18327,16 +18330,16 @@
         <v>392</v>
       </c>
       <c r="E594" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F594" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G594" s="80" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H594" s="80" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I594" s="80" t="s">
         <v>37</v>
@@ -18345,7 +18348,7 @@
         <v>388</v>
       </c>
       <c r="T594" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="595">
@@ -18353,17 +18356,17 @@
         <v>392</v>
       </c>
       <c r="E595" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F595" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G595" s="80" t="s">
+        <v>771</v>
+      </c>
+      <c r="H595" s="80" t="s">
         <v>770</v>
       </c>
-      <c r="H595" s="80" t="s">
-        <v>769</v>
-      </c>
       <c r="I595" s="80" t="s">
         <v>37</v>
       </c>
@@ -18371,7 +18374,7 @@
         <v>388</v>
       </c>
       <c r="T595" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="596">
@@ -18379,16 +18382,16 @@
         <v>392</v>
       </c>
       <c r="E596" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F596" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G596" s="80" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H596" s="80" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I596" s="80" t="s">
         <v>37</v>
@@ -18397,7 +18400,7 @@
         <v>388</v>
       </c>
       <c r="T596" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="597">
@@ -18405,16 +18408,16 @@
         <v>392</v>
       </c>
       <c r="E597" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F597" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G597" s="80" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H597" s="80" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I597" s="80" t="s">
         <v>37</v>
@@ -18423,7 +18426,7 @@
         <v>388</v>
       </c>
       <c r="T597" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="598">
@@ -18431,16 +18434,16 @@
         <v>392</v>
       </c>
       <c r="E598" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F598" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G598" s="80" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H598" s="80" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I598" s="80" t="s">
         <v>37</v>
@@ -18449,7 +18452,7 @@
         <v>388</v>
       </c>
       <c r="T598" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="599">
@@ -18457,16 +18460,16 @@
         <v>392</v>
       </c>
       <c r="E599" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F599" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G599" s="80" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H599" s="80" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I599" s="80" t="s">
         <v>37</v>
@@ -18475,7 +18478,7 @@
         <v>388</v>
       </c>
       <c r="T599" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="600">
@@ -18483,13 +18486,13 @@
         <v>392</v>
       </c>
       <c r="E600" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F600" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G600" s="80" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H600" s="80" t="s">
         <v>400</v>
@@ -18501,7 +18504,7 @@
         <v>388</v>
       </c>
       <c r="T600" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="601">
@@ -18509,13 +18512,13 @@
         <v>392</v>
       </c>
       <c r="E601" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F601" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G601" s="80" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H601" s="80" t="s">
         <v>400</v>
@@ -18527,7 +18530,7 @@
         <v>388</v>
       </c>
       <c r="T601" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="602">
@@ -18535,13 +18538,13 @@
         <v>392</v>
       </c>
       <c r="E602" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F602" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G602" s="80" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H602" s="80" t="s">
         <v>400</v>
@@ -18553,7 +18556,7 @@
         <v>388</v>
       </c>
       <c r="T602" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="603">
@@ -18561,13 +18564,13 @@
         <v>392</v>
       </c>
       <c r="E603" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F603" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G603" s="80" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H603" s="80" t="s">
         <v>400</v>
@@ -18579,7 +18582,7 @@
         <v>388</v>
       </c>
       <c r="T603" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="604">
@@ -18587,16 +18590,16 @@
         <v>392</v>
       </c>
       <c r="E604" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F604" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G604" s="80" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H604" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I604" s="80" t="s">
         <v>37</v>
@@ -18605,7 +18608,7 @@
         <v>388</v>
       </c>
       <c r="T604" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="605">
@@ -18613,16 +18616,16 @@
         <v>392</v>
       </c>
       <c r="E605" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F605" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G605" s="80" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H605" s="80" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I605" s="80" t="s">
         <v>37</v>
@@ -18631,7 +18634,7 @@
         <v>388</v>
       </c>
       <c r="T605" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="606">
@@ -18639,17 +18642,17 @@
         <v>392</v>
       </c>
       <c r="E606" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F606" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G606" s="80" t="s">
+        <v>784</v>
+      </c>
+      <c r="H606" s="80" t="s">
         <v>783</v>
       </c>
-      <c r="H606" s="80" t="s">
-        <v>782</v>
-      </c>
       <c r="I606" s="80" t="s">
         <v>37</v>
       </c>
@@ -18657,7 +18660,7 @@
         <v>388</v>
       </c>
       <c r="T606" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="607">
@@ -18665,16 +18668,16 @@
         <v>392</v>
       </c>
       <c r="E607" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F607" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G607" s="80" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H607" s="80" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I607" s="80" t="s">
         <v>37</v>
@@ -18683,7 +18686,7 @@
         <v>388</v>
       </c>
       <c r="T607" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="608">
@@ -18691,16 +18694,16 @@
         <v>392</v>
       </c>
       <c r="E608" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F608" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G608" s="80" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H608" s="80" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I608" s="80" t="s">
         <v>37</v>
@@ -18709,7 +18712,7 @@
         <v>388</v>
       </c>
       <c r="T608" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="609">
@@ -18717,16 +18720,16 @@
         <v>392</v>
       </c>
       <c r="E609" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F609" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G609" s="80" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H609" s="80" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I609" s="80" t="s">
         <v>37</v>
@@ -18735,7 +18738,7 @@
         <v>388</v>
       </c>
       <c r="T609" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="610">
@@ -18743,13 +18746,13 @@
         <v>392</v>
       </c>
       <c r="E610" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F610" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G610" s="80" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H610" s="80" t="s">
         <v>400</v>
@@ -18761,7 +18764,7 @@
         <v>388</v>
       </c>
       <c r="T610" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="611">
@@ -18769,13 +18772,13 @@
         <v>392</v>
       </c>
       <c r="E611" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F611" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G611" s="80" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H611" s="80" t="s">
         <v>400</v>
@@ -18787,7 +18790,7 @@
         <v>388</v>
       </c>
       <c r="T611" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="612">
@@ -18795,13 +18798,13 @@
         <v>392</v>
       </c>
       <c r="E612" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F612" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G612" s="80" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H612" s="80" t="s">
         <v>400</v>
@@ -18813,7 +18816,7 @@
         <v>388</v>
       </c>
       <c r="T612" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="613">
@@ -18821,13 +18824,13 @@
         <v>392</v>
       </c>
       <c r="E613" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F613" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G613" s="80" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H613" s="80" t="s">
         <v>400</v>
@@ -18839,7 +18842,7 @@
         <v>388</v>
       </c>
       <c r="T613" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="614">
@@ -18847,13 +18850,13 @@
         <v>392</v>
       </c>
       <c r="E614" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F614" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G614" s="80" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H614" s="80" t="s">
         <v>400</v>
@@ -18865,7 +18868,7 @@
         <v>388</v>
       </c>
       <c r="T614" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="615">
@@ -18873,13 +18876,13 @@
         <v>392</v>
       </c>
       <c r="E615" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F615" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G615" s="80" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H615" s="80" t="s">
         <v>400</v>
@@ -18891,7 +18894,7 @@
         <v>388</v>
       </c>
       <c r="T615" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="616">
@@ -18899,13 +18902,13 @@
         <v>392</v>
       </c>
       <c r="E616" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F616" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G616" s="80" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H616" s="80" t="s">
         <v>400</v>
@@ -18917,7 +18920,7 @@
         <v>388</v>
       </c>
       <c r="T616" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="617">
@@ -18925,16 +18928,16 @@
         <v>392</v>
       </c>
       <c r="E617" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F617" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G617" s="80" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H617" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I617" s="80" t="s">
         <v>37</v>
@@ -18943,7 +18946,7 @@
         <v>388</v>
       </c>
       <c r="T617" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="618">
@@ -18951,16 +18954,16 @@
         <v>392</v>
       </c>
       <c r="E618" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F618" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G618" s="80" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H618" s="80" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I618" s="80" t="s">
         <v>37</v>
@@ -18969,7 +18972,7 @@
         <v>388</v>
       </c>
       <c r="T618" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="619">
@@ -18977,17 +18980,17 @@
         <v>392</v>
       </c>
       <c r="E619" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F619" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G619" s="80" t="s">
+        <v>798</v>
+      </c>
+      <c r="H619" s="80" t="s">
         <v>797</v>
       </c>
-      <c r="H619" s="80" t="s">
-        <v>796</v>
-      </c>
       <c r="I619" s="80" t="s">
         <v>37</v>
       </c>
@@ -18995,7 +18998,7 @@
         <v>388</v>
       </c>
       <c r="T619" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="620">
@@ -19003,16 +19006,16 @@
         <v>392</v>
       </c>
       <c r="E620" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F620" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G620" s="80" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H620" s="80" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I620" s="80" t="s">
         <v>37</v>
@@ -19021,7 +19024,7 @@
         <v>388</v>
       </c>
       <c r="T620" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="621">
@@ -19029,17 +19032,17 @@
         <v>392</v>
       </c>
       <c r="E621" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F621" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G621" s="80" t="s">
+        <v>801</v>
+      </c>
+      <c r="H621" s="80" t="s">
         <v>800</v>
       </c>
-      <c r="H621" s="80" t="s">
-        <v>799</v>
-      </c>
       <c r="I621" s="80" t="s">
         <v>37</v>
       </c>
@@ -19047,7 +19050,7 @@
         <v>388</v>
       </c>
       <c r="T621" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="622">
@@ -19055,16 +19058,16 @@
         <v>392</v>
       </c>
       <c r="E622" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F622" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G622" s="80" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H622" s="80" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I622" s="80" t="s">
         <v>37</v>
@@ -19073,7 +19076,7 @@
         <v>388</v>
       </c>
       <c r="T622" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="623">
@@ -19081,17 +19084,17 @@
         <v>392</v>
       </c>
       <c r="E623" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F623" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G623" s="80" t="s">
+        <v>804</v>
+      </c>
+      <c r="H623" s="80" t="s">
         <v>803</v>
       </c>
-      <c r="H623" s="80" t="s">
-        <v>802</v>
-      </c>
       <c r="I623" s="80" t="s">
         <v>37</v>
       </c>
@@ -19099,7 +19102,7 @@
         <v>388</v>
       </c>
       <c r="T623" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="624">
@@ -19107,16 +19110,16 @@
         <v>392</v>
       </c>
       <c r="E624" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F624" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G624" s="80" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H624" s="80" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="I624" s="80" t="s">
         <v>37</v>
@@ -19125,7 +19128,7 @@
         <v>388</v>
       </c>
       <c r="T624" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="625">
@@ -19133,17 +19136,17 @@
         <v>392</v>
       </c>
       <c r="E625" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F625" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G625" s="80" t="s">
+        <v>807</v>
+      </c>
+      <c r="H625" s="80" t="s">
         <v>806</v>
       </c>
-      <c r="H625" s="80" t="s">
-        <v>805</v>
-      </c>
       <c r="I625" s="80" t="s">
         <v>37</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>388</v>
       </c>
       <c r="T625" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="626">
@@ -19159,16 +19162,16 @@
         <v>392</v>
       </c>
       <c r="E626" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F626" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G626" s="80" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H626" s="80" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I626" s="80" t="s">
         <v>37</v>
@@ -19177,7 +19180,7 @@
         <v>388</v>
       </c>
       <c r="T626" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="627">
@@ -19185,17 +19188,17 @@
         <v>392</v>
       </c>
       <c r="E627" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F627" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G627" s="80" t="s">
+        <v>810</v>
+      </c>
+      <c r="H627" s="80" t="s">
         <v>809</v>
       </c>
-      <c r="H627" s="80" t="s">
-        <v>808</v>
-      </c>
       <c r="I627" s="80" t="s">
         <v>37</v>
       </c>
@@ -19203,7 +19206,7 @@
         <v>388</v>
       </c>
       <c r="T627" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="628">
@@ -19211,16 +19214,16 @@
         <v>392</v>
       </c>
       <c r="E628" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F628" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G628" s="80" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H628" s="80" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="I628" s="80" t="s">
         <v>37</v>
@@ -19229,7 +19232,7 @@
         <v>388</v>
       </c>
       <c r="T628" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="629">
@@ -19237,16 +19240,16 @@
         <v>392</v>
       </c>
       <c r="E629" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F629" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G629" s="80" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H629" s="80" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I629" s="80" t="s">
         <v>37</v>
@@ -19255,7 +19258,7 @@
         <v>388</v>
       </c>
       <c r="T629" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="630">
@@ -19263,17 +19266,17 @@
         <v>392</v>
       </c>
       <c r="E630" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F630" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G630" s="80" t="s">
+        <v>814</v>
+      </c>
+      <c r="H630" s="80" t="s">
         <v>813</v>
       </c>
-      <c r="H630" s="80" t="s">
-        <v>812</v>
-      </c>
       <c r="I630" s="80" t="s">
         <v>37</v>
       </c>
@@ -19281,7 +19284,7 @@
         <v>388</v>
       </c>
       <c r="T630" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="631">
@@ -19289,16 +19292,16 @@
         <v>392</v>
       </c>
       <c r="E631" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F631" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G631" s="80" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H631" s="80" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I631" s="80" t="s">
         <v>37</v>
@@ -19307,7 +19310,7 @@
         <v>388</v>
       </c>
       <c r="T631" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="632">
@@ -19315,13 +19318,13 @@
         <v>392</v>
       </c>
       <c r="E632" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F632" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G632" s="80" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H632" s="80" t="s">
         <v>400</v>
@@ -19333,7 +19336,7 @@
         <v>388</v>
       </c>
       <c r="T632" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="633">
@@ -19341,13 +19344,13 @@
         <v>392</v>
       </c>
       <c r="E633" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F633" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G633" s="80" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H633" s="80" t="s">
         <v>400</v>
@@ -19359,7 +19362,7 @@
         <v>388</v>
       </c>
       <c r="T633" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="634">
@@ -19367,13 +19370,13 @@
         <v>392</v>
       </c>
       <c r="E634" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F634" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G634" s="80" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H634" s="80" t="s">
         <v>400</v>
@@ -19385,7 +19388,7 @@
         <v>388</v>
       </c>
       <c r="T634" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="635">
@@ -19393,13 +19396,13 @@
         <v>392</v>
       </c>
       <c r="E635" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F635" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G635" s="80" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H635" s="80" t="s">
         <v>400</v>
@@ -19411,7 +19414,7 @@
         <v>388</v>
       </c>
       <c r="T635" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="636">
@@ -19419,16 +19422,16 @@
         <v>392</v>
       </c>
       <c r="E636" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F636" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G636" s="80" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H636" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I636" s="80" t="s">
         <v>37</v>
@@ -19437,7 +19440,7 @@
         <v>388</v>
       </c>
       <c r="T636" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="637">
@@ -19445,16 +19448,16 @@
         <v>392</v>
       </c>
       <c r="E637" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F637" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G637" s="80" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H637" s="80" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I637" s="80" t="s">
         <v>37</v>
@@ -19463,7 +19466,7 @@
         <v>388</v>
       </c>
       <c r="T637" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="638">
@@ -19471,17 +19474,17 @@
         <v>392</v>
       </c>
       <c r="E638" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F638" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G638" s="80" t="s">
+        <v>823</v>
+      </c>
+      <c r="H638" s="80" t="s">
         <v>822</v>
       </c>
-      <c r="H638" s="80" t="s">
-        <v>821</v>
-      </c>
       <c r="I638" s="80" t="s">
         <v>37</v>
       </c>
@@ -19489,7 +19492,7 @@
         <v>388</v>
       </c>
       <c r="T638" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="639">
@@ -19497,16 +19500,16 @@
         <v>392</v>
       </c>
       <c r="E639" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F639" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G639" s="80" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H639" s="80" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I639" s="80" t="s">
         <v>37</v>
@@ -19515,7 +19518,7 @@
         <v>388</v>
       </c>
       <c r="T639" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="640">
@@ -19523,16 +19526,16 @@
         <v>392</v>
       </c>
       <c r="E640" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F640" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G640" s="80" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H640" s="80" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I640" s="80" t="s">
         <v>37</v>
@@ -19541,7 +19544,7 @@
         <v>388</v>
       </c>
       <c r="T640" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="641">
@@ -19549,16 +19552,16 @@
         <v>392</v>
       </c>
       <c r="E641" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F641" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G641" s="80" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H641" s="80" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I641" s="80" t="s">
         <v>37</v>
@@ -19567,7 +19570,7 @@
         <v>388</v>
       </c>
       <c r="T641" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="642">
@@ -19575,16 +19578,16 @@
         <v>392</v>
       </c>
       <c r="E642" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F642" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G642" s="80" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H642" s="80" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I642" s="80" t="s">
         <v>37</v>
@@ -19593,7 +19596,7 @@
         <v>388</v>
       </c>
       <c r="T642" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="643">
@@ -19601,17 +19604,17 @@
         <v>392</v>
       </c>
       <c r="E643" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F643" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G643" s="80" t="s">
+        <v>829</v>
+      </c>
+      <c r="H643" s="80" t="s">
         <v>828</v>
       </c>
-      <c r="H643" s="80" t="s">
-        <v>827</v>
-      </c>
       <c r="I643" s="80" t="s">
         <v>37</v>
       </c>
@@ -19619,7 +19622,7 @@
         <v>388</v>
       </c>
       <c r="T643" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="644">
@@ -19627,16 +19630,16 @@
         <v>392</v>
       </c>
       <c r="E644" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F644" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G644" s="80" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H644" s="80" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I644" s="80" t="s">
         <v>37</v>
@@ -19645,7 +19648,7 @@
         <v>388</v>
       </c>
       <c r="T644" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="645">
@@ -19653,16 +19656,16 @@
         <v>392</v>
       </c>
       <c r="E645" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F645" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G645" s="80" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H645" s="80" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I645" s="80" t="s">
         <v>37</v>
@@ -19671,7 +19674,7 @@
         <v>388</v>
       </c>
       <c r="T645" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="646">
@@ -19679,16 +19682,16 @@
         <v>392</v>
       </c>
       <c r="E646" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F646" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G646" s="80" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H646" s="80" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I646" s="80" t="s">
         <v>37</v>
@@ -19697,7 +19700,7 @@
         <v>388</v>
       </c>
       <c r="T646" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="647">
@@ -19705,17 +19708,17 @@
         <v>392</v>
       </c>
       <c r="E647" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F647" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G647" s="80" t="s">
+        <v>834</v>
+      </c>
+      <c r="H647" s="80" t="s">
         <v>833</v>
       </c>
-      <c r="H647" s="80" t="s">
-        <v>832</v>
-      </c>
       <c r="I647" s="80" t="s">
         <v>37</v>
       </c>
@@ -19723,7 +19726,7 @@
         <v>388</v>
       </c>
       <c r="T647" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="648">
@@ -19731,16 +19734,16 @@
         <v>392</v>
       </c>
       <c r="E648" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F648" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G648" s="80" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H648" s="80" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I648" s="80" t="s">
         <v>37</v>
@@ -19749,7 +19752,7 @@
         <v>388</v>
       </c>
       <c r="T648" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="649">
@@ -19757,16 +19760,16 @@
         <v>392</v>
       </c>
       <c r="E649" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F649" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G649" s="80" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H649" s="80" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I649" s="80" t="s">
         <v>37</v>
@@ -19775,7 +19778,7 @@
         <v>388</v>
       </c>
       <c r="T649" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="650">
@@ -19783,16 +19786,16 @@
         <v>392</v>
       </c>
       <c r="E650" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F650" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G650" s="80" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H650" s="80" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I650" s="80" t="s">
         <v>37</v>
@@ -19801,7 +19804,7 @@
         <v>388</v>
       </c>
       <c r="T650" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="651">
@@ -19809,13 +19812,13 @@
         <v>392</v>
       </c>
       <c r="E651" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F651" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G651" s="80" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H651" s="80" t="s">
         <v>400</v>
@@ -19827,7 +19830,7 @@
         <v>388</v>
       </c>
       <c r="T651" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="652">
@@ -19835,13 +19838,13 @@
         <v>392</v>
       </c>
       <c r="E652" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F652" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G652" s="80" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H652" s="80" t="s">
         <v>400</v>
@@ -19853,7 +19856,7 @@
         <v>388</v>
       </c>
       <c r="T652" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="653">
@@ -19861,13 +19864,13 @@
         <v>392</v>
       </c>
       <c r="E653" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F653" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G653" s="80" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H653" s="80" t="s">
         <v>400</v>
@@ -19879,7 +19882,7 @@
         <v>388</v>
       </c>
       <c r="T653" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="654">
@@ -19887,13 +19890,13 @@
         <v>392</v>
       </c>
       <c r="E654" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F654" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G654" s="80" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H654" s="80" t="s">
         <v>400</v>
@@ -19905,7 +19908,7 @@
         <v>388</v>
       </c>
       <c r="T654" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="655">
@@ -19913,13 +19916,13 @@
         <v>392</v>
       </c>
       <c r="E655" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F655" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G655" s="80" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H655" s="80" t="s">
         <v>400</v>
@@ -19931,7 +19934,7 @@
         <v>388</v>
       </c>
       <c r="T655" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="656">
@@ -19939,13 +19942,13 @@
         <v>392</v>
       </c>
       <c r="E656" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F656" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G656" s="80" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H656" s="80" t="s">
         <v>400</v>
@@ -19957,7 +19960,7 @@
         <v>388</v>
       </c>
       <c r="T656" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="657">
@@ -19965,16 +19968,16 @@
         <v>392</v>
       </c>
       <c r="E657" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F657" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G657" s="80" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H657" s="80" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="I657" s="80" t="s">
         <v>37</v>
@@ -19983,7 +19986,7 @@
         <v>388</v>
       </c>
       <c r="T657" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="658">
@@ -19991,16 +19994,16 @@
         <v>392</v>
       </c>
       <c r="E658" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F658" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G658" s="80" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H658" s="80" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I658" s="80" t="s">
         <v>37</v>
@@ -20009,7 +20012,7 @@
         <v>388</v>
       </c>
       <c r="T658" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="659">
@@ -20017,17 +20020,17 @@
         <v>392</v>
       </c>
       <c r="E659" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F659" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G659" s="80" t="s">
+        <v>847</v>
+      </c>
+      <c r="H659" s="80" t="s">
         <v>846</v>
       </c>
-      <c r="H659" s="80" t="s">
-        <v>845</v>
-      </c>
       <c r="I659" s="80" t="s">
         <v>37</v>
       </c>
@@ -20035,7 +20038,7 @@
         <v>388</v>
       </c>
       <c r="T659" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="660">
@@ -20043,16 +20046,16 @@
         <v>392</v>
       </c>
       <c r="E660" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F660" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G660" s="80" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H660" s="80" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I660" s="80" t="s">
         <v>37</v>
@@ -20061,7 +20064,7 @@
         <v>388</v>
       </c>
       <c r="T660" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="661">
@@ -20069,16 +20072,16 @@
         <v>392</v>
       </c>
       <c r="E661" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F661" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G661" s="80" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H661" s="80" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I661" s="80" t="s">
         <v>37</v>
@@ -20087,7 +20090,7 @@
         <v>388</v>
       </c>
       <c r="T661" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="662">
@@ -20095,16 +20098,16 @@
         <v>392</v>
       </c>
       <c r="E662" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F662" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G662" s="80" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H662" s="80" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="I662" s="80" t="s">
         <v>37</v>
@@ -20113,7 +20116,7 @@
         <v>388</v>
       </c>
       <c r="T662" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="663">
@@ -20121,16 +20124,16 @@
         <v>392</v>
       </c>
       <c r="E663" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F663" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G663" s="80" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H663" s="80" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I663" s="80" t="s">
         <v>37</v>
@@ -20139,7 +20142,7 @@
         <v>388</v>
       </c>
       <c r="T663" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="664">
@@ -20147,17 +20150,17 @@
         <v>392</v>
       </c>
       <c r="E664" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F664" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G664" s="80" t="s">
+        <v>853</v>
+      </c>
+      <c r="H664" s="80" t="s">
         <v>852</v>
       </c>
-      <c r="H664" s="80" t="s">
-        <v>851</v>
-      </c>
       <c r="I664" s="80" t="s">
         <v>37</v>
       </c>
@@ -20165,7 +20168,7 @@
         <v>388</v>
       </c>
       <c r="T664" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="665">
@@ -20173,16 +20176,16 @@
         <v>392</v>
       </c>
       <c r="E665" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F665" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G665" s="80" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H665" s="80" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I665" s="80" t="s">
         <v>37</v>
@@ -20191,7 +20194,7 @@
         <v>388</v>
       </c>
       <c r="T665" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="666">
@@ -20199,16 +20202,16 @@
         <v>392</v>
       </c>
       <c r="E666" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F666" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G666" s="80" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H666" s="80" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="I666" s="80" t="s">
         <v>37</v>
@@ -20217,7 +20220,7 @@
         <v>388</v>
       </c>
       <c r="T666" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="667">
@@ -20225,13 +20228,13 @@
         <v>392</v>
       </c>
       <c r="E667" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F667" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G667" s="80" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H667" s="80" t="s">
         <v>400</v>
@@ -20243,7 +20246,7 @@
         <v>388</v>
       </c>
       <c r="T667" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="668">
@@ -20251,13 +20254,13 @@
         <v>392</v>
       </c>
       <c r="E668" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F668" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G668" s="80" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H668" s="80" t="s">
         <v>400</v>
@@ -20269,7 +20272,7 @@
         <v>388</v>
       </c>
       <c r="T668" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="669">
@@ -20277,13 +20280,13 @@
         <v>392</v>
       </c>
       <c r="E669" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F669" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G669" s="80" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H669" s="80" t="s">
         <v>400</v>
@@ -20295,7 +20298,7 @@
         <v>388</v>
       </c>
       <c r="T669" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="670">
@@ -20303,13 +20306,13 @@
         <v>392</v>
       </c>
       <c r="E670" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F670" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G670" s="80" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H670" s="80" t="s">
         <v>400</v>
@@ -20321,7 +20324,7 @@
         <v>388</v>
       </c>
       <c r="T670" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="671">
@@ -20329,13 +20332,13 @@
         <v>392</v>
       </c>
       <c r="E671" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F671" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G671" s="80" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H671" s="80" t="s">
         <v>400</v>
@@ -20347,7 +20350,7 @@
         <v>388</v>
       </c>
       <c r="T671" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="672">
@@ -20355,13 +20358,13 @@
         <v>392</v>
       </c>
       <c r="E672" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F672" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G672" s="80" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H672" s="80" t="s">
         <v>400</v>
@@ -20373,7 +20376,7 @@
         <v>388</v>
       </c>
       <c r="T672" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="673">
@@ -20381,16 +20384,16 @@
         <v>392</v>
       </c>
       <c r="E673" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F673" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G673" s="80" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H673" s="80" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I673" s="80" t="s">
         <v>37</v>
@@ -20399,7 +20402,7 @@
         <v>388</v>
       </c>
       <c r="T673" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="674">
@@ -20407,17 +20410,17 @@
         <v>392</v>
       </c>
       <c r="E674" s="80" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F674" s="80" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="G674" s="80" t="s">
+        <v>864</v>
+      </c>
+      <c r="H674" s="80" t="s">
         <v>863</v>
       </c>
-      <c r="H674" s="80" t="s">
-        <v>862</v>
-      </c>
       <c r="I674" s="80" t="s">
         <v>37</v>
       </c>
@@ -20425,7 +20428,7 @@
         <v>388</v>
       </c>
       <c r="T674" s="79" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="675">
@@ -20434,13 +20437,13 @@
       </c>
       <c r="E675" s="80"/>
       <c r="F675" s="80" t="s">
+        <v>866</v>
+      </c>
+      <c r="G675" s="80" t="s">
         <v>865</v>
       </c>
-      <c r="G675" s="80" t="s">
-        <v>864</v>
-      </c>
       <c r="H675" s="80" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I675" s="80" t="s">
         <v>37</v>
@@ -20449,7 +20452,7 @@
         <v>388</v>
       </c>
       <c r="T675" s="79" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="676">
@@ -20458,22 +20461,22 @@
       </c>
       <c r="E676" s="80"/>
       <c r="F676" s="80" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G676" s="80" t="s">
+        <v>869</v>
+      </c>
+      <c r="H676" s="80" t="s">
+        <v>867</v>
+      </c>
+      <c r="I676" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="S676" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="T676" s="79" t="s">
         <v>868</v>
-      </c>
-      <c r="H676" s="80" t="s">
-        <v>866</v>
-      </c>
-      <c r="I676" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="S676" s="80" t="s">
-        <v>388</v>
-      </c>
-      <c r="T676" s="79" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="677">
@@ -20482,20 +20485,20 @@
       </c>
       <c r="E677" s="80"/>
       <c r="F677" s="80" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G677" s="80" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="H677" s="80" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I677" s="80"/>
       <c r="S677" s="80" t="s">
         <v>388</v>
       </c>
       <c r="T677" s="79" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="678">
@@ -20504,10 +20507,10 @@
       </c>
       <c r="E678" s="80"/>
       <c r="F678" s="80" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G678" s="80" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H678" s="80" t="s">
         <v>706</v>
@@ -20519,7 +20522,7 @@
         <v>388</v>
       </c>
       <c r="T678" s="79" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="679">
@@ -20527,13 +20530,13 @@
         <v>392</v>
       </c>
       <c r="E679" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F679" s="80" t="s">
+        <v>874</v>
+      </c>
+      <c r="G679" s="80" t="s">
         <v>873</v>
-      </c>
-      <c r="G679" s="80" t="s">
-        <v>872</v>
       </c>
       <c r="H679" s="80" t="s">
         <v>400</v>
@@ -20545,7 +20548,7 @@
         <v>388</v>
       </c>
       <c r="T679" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="680">
@@ -20553,13 +20556,13 @@
         <v>392</v>
       </c>
       <c r="E680" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F680" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G680" s="80" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H680" s="80" t="s">
         <v>400</v>
@@ -20571,7 +20574,7 @@
         <v>388</v>
       </c>
       <c r="T680" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="681">
@@ -20579,13 +20582,13 @@
         <v>392</v>
       </c>
       <c r="E681" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F681" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G681" s="80" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="H681" s="80" t="s">
         <v>400</v>
@@ -20597,7 +20600,7 @@
         <v>388</v>
       </c>
       <c r="T681" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="682">
@@ -20605,13 +20608,13 @@
         <v>392</v>
       </c>
       <c r="E682" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F682" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G682" s="80" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H682" s="80" t="s">
         <v>400</v>
@@ -20623,7 +20626,7 @@
         <v>388</v>
       </c>
       <c r="T682" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="683">
@@ -20631,13 +20634,13 @@
         <v>392</v>
       </c>
       <c r="E683" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F683" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G683" s="80" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="H683" s="80" t="s">
         <v>400</v>
@@ -20649,7 +20652,7 @@
         <v>388</v>
       </c>
       <c r="T683" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="684">
@@ -20657,13 +20660,13 @@
         <v>392</v>
       </c>
       <c r="E684" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F684" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G684" s="80" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="H684" s="80" t="s">
         <v>400</v>
@@ -20675,7 +20678,7 @@
         <v>388</v>
       </c>
       <c r="T684" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="685">
@@ -20683,13 +20686,13 @@
         <v>392</v>
       </c>
       <c r="E685" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F685" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G685" s="80" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="H685" s="80" t="s">
         <v>400</v>
@@ -20701,7 +20704,7 @@
         <v>388</v>
       </c>
       <c r="T685" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="686">
@@ -20709,16 +20712,16 @@
         <v>392</v>
       </c>
       <c r="E686" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F686" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G686" s="80" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="H686" s="80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I686" s="80" t="s">
         <v>37</v>
@@ -20727,7 +20730,7 @@
         <v>388</v>
       </c>
       <c r="T686" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="687">
@@ -20735,16 +20738,16 @@
         <v>392</v>
       </c>
       <c r="E687" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F687" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G687" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H687" s="80" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I687" s="80" t="s">
         <v>37</v>
@@ -20753,7 +20756,7 @@
         <v>388</v>
       </c>
       <c r="T687" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="688">
@@ -20761,16 +20764,16 @@
         <v>392</v>
       </c>
       <c r="E688" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F688" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G688" s="80" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="H688" s="80" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I688" s="80" t="s">
         <v>37</v>
@@ -20779,7 +20782,7 @@
         <v>388</v>
       </c>
       <c r="T688" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="689">
@@ -20787,17 +20790,17 @@
         <v>392</v>
       </c>
       <c r="E689" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F689" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G689" s="80" t="s">
+        <v>888</v>
+      </c>
+      <c r="H689" s="80" t="s">
         <v>887</v>
       </c>
-      <c r="H689" s="80" t="s">
-        <v>886</v>
-      </c>
       <c r="I689" s="80" t="s">
         <v>37</v>
       </c>
@@ -20805,7 +20808,7 @@
         <v>388</v>
       </c>
       <c r="T689" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="690">
@@ -20813,16 +20816,16 @@
         <v>392</v>
       </c>
       <c r="E690" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F690" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G690" s="80" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="H690" s="80" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I690" s="80" t="s">
         <v>37</v>
@@ -20831,7 +20834,7 @@
         <v>388</v>
       </c>
       <c r="T690" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="691">
@@ -20839,13 +20842,13 @@
         <v>392</v>
       </c>
       <c r="E691" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F691" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G691" s="80" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="H691" s="80" t="s">
         <v>400</v>
@@ -20857,7 +20860,7 @@
         <v>388</v>
       </c>
       <c r="T691" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="692">
@@ -20865,13 +20868,13 @@
         <v>392</v>
       </c>
       <c r="E692" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F692" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G692" s="80" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H692" s="80" t="s">
         <v>400</v>
@@ -20883,7 +20886,7 @@
         <v>388</v>
       </c>
       <c r="T692" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="693">
@@ -20891,13 +20894,13 @@
         <v>392</v>
       </c>
       <c r="E693" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F693" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G693" s="80" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="H693" s="80" t="s">
         <v>400</v>
@@ -20909,7 +20912,7 @@
         <v>388</v>
       </c>
       <c r="T693" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="694">
@@ -20917,13 +20920,13 @@
         <v>392</v>
       </c>
       <c r="E694" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F694" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G694" s="80" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H694" s="80" t="s">
         <v>400</v>
@@ -20935,7 +20938,7 @@
         <v>388</v>
       </c>
       <c r="T694" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="695">
@@ -20943,13 +20946,13 @@
         <v>392</v>
       </c>
       <c r="E695" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F695" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G695" s="80" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H695" s="80" t="s">
         <v>400</v>
@@ -20961,7 +20964,7 @@
         <v>388</v>
       </c>
       <c r="T695" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="696">
@@ -20969,13 +20972,13 @@
         <v>392</v>
       </c>
       <c r="E696" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F696" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G696" s="80" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H696" s="80" t="s">
         <v>400</v>
@@ -20987,7 +20990,7 @@
         <v>388</v>
       </c>
       <c r="T696" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="697">
@@ -20995,13 +20998,13 @@
         <v>392</v>
       </c>
       <c r="E697" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F697" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G697" s="80" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="H697" s="80" t="s">
         <v>400</v>
@@ -21013,7 +21016,7 @@
         <v>388</v>
       </c>
       <c r="T697" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="698">
@@ -21021,13 +21024,13 @@
         <v>392</v>
       </c>
       <c r="E698" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F698" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G698" s="80" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H698" s="80" t="s">
         <v>400</v>
@@ -21039,7 +21042,7 @@
         <v>388</v>
       </c>
       <c r="T698" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="699">
@@ -21047,16 +21050,16 @@
         <v>392</v>
       </c>
       <c r="E699" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F699" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G699" s="80" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H699" s="80" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I699" s="80" t="s">
         <v>37</v>
@@ -21065,7 +21068,7 @@
         <v>388</v>
       </c>
       <c r="T699" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="700">
@@ -21073,16 +21076,16 @@
         <v>392</v>
       </c>
       <c r="E700" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F700" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G700" s="80" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H700" s="80" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="I700" s="80" t="s">
         <v>37</v>
@@ -21091,7 +21094,7 @@
         <v>388</v>
       </c>
       <c r="T700" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="701">
@@ -21099,16 +21102,16 @@
         <v>392</v>
       </c>
       <c r="E701" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F701" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G701" s="80" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="H701" s="80" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I701" s="80" t="s">
         <v>37</v>
@@ -21117,7 +21120,7 @@
         <v>388</v>
       </c>
       <c r="T701" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="702">
@@ -21125,17 +21128,17 @@
         <v>392</v>
       </c>
       <c r="E702" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F702" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G702" s="80" t="s">
+        <v>904</v>
+      </c>
+      <c r="H702" s="80" t="s">
         <v>903</v>
       </c>
-      <c r="H702" s="80" t="s">
-        <v>902</v>
-      </c>
       <c r="I702" s="80" t="s">
         <v>37</v>
       </c>
@@ -21143,7 +21146,7 @@
         <v>388</v>
       </c>
       <c r="T702" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="703">
@@ -21151,16 +21154,16 @@
         <v>392</v>
       </c>
       <c r="E703" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F703" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G703" s="80" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="H703" s="80" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I703" s="80" t="s">
         <v>37</v>
@@ -21169,7 +21172,7 @@
         <v>388</v>
       </c>
       <c r="T703" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="704">
@@ -21177,16 +21180,16 @@
         <v>392</v>
       </c>
       <c r="E704" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F704" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G704" s="80" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="H704" s="80" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I704" s="80" t="s">
         <v>37</v>
@@ -21195,7 +21198,7 @@
         <v>388</v>
       </c>
       <c r="T704" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="705">
@@ -21203,17 +21206,17 @@
         <v>392</v>
       </c>
       <c r="E705" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F705" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G705" s="80" t="s">
+        <v>908</v>
+      </c>
+      <c r="H705" s="80" t="s">
         <v>907</v>
       </c>
-      <c r="H705" s="80" t="s">
-        <v>906</v>
-      </c>
       <c r="I705" s="80" t="s">
         <v>37</v>
       </c>
@@ -21221,7 +21224,7 @@
         <v>388</v>
       </c>
       <c r="T705" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="706">
@@ -21229,16 +21232,16 @@
         <v>392</v>
       </c>
       <c r="E706" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F706" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G706" s="80" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="H706" s="80" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I706" s="80" t="s">
         <v>37</v>
@@ -21247,7 +21250,7 @@
         <v>388</v>
       </c>
       <c r="T706" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="707">
@@ -21255,16 +21258,16 @@
         <v>392</v>
       </c>
       <c r="E707" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F707" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G707" s="80" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H707" s="80" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I707" s="80" t="s">
         <v>37</v>
@@ -21273,7 +21276,7 @@
         <v>388</v>
       </c>
       <c r="T707" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="708">
@@ -21281,17 +21284,17 @@
         <v>392</v>
       </c>
       <c r="E708" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F708" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G708" s="80" t="s">
+        <v>912</v>
+      </c>
+      <c r="H708" s="80" t="s">
         <v>911</v>
       </c>
-      <c r="H708" s="80" t="s">
-        <v>910</v>
-      </c>
       <c r="I708" s="80" t="s">
         <v>37</v>
       </c>
@@ -21299,7 +21302,7 @@
         <v>388</v>
       </c>
       <c r="T708" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="709">
@@ -21307,16 +21310,16 @@
         <v>392</v>
       </c>
       <c r="E709" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F709" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G709" s="80" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H709" s="80" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I709" s="80" t="s">
         <v>37</v>
@@ -21325,7 +21328,7 @@
         <v>388</v>
       </c>
       <c r="T709" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="710">
@@ -21333,16 +21336,16 @@
         <v>392</v>
       </c>
       <c r="E710" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F710" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G710" s="80" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H710" s="80" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="I710" s="80" t="s">
         <v>37</v>
@@ -21351,7 +21354,7 @@
         <v>388</v>
       </c>
       <c r="T710" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="711">
@@ -21359,16 +21362,16 @@
         <v>392</v>
       </c>
       <c r="E711" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F711" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G711" s="80" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H711" s="80" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I711" s="80" t="s">
         <v>37</v>
@@ -21377,7 +21380,7 @@
         <v>388</v>
       </c>
       <c r="T711" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="712">
@@ -21385,16 +21388,16 @@
         <v>392</v>
       </c>
       <c r="E712" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F712" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G712" s="80" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H712" s="80" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I712" s="80" t="s">
         <v>37</v>
@@ -21403,7 +21406,7 @@
         <v>388</v>
       </c>
       <c r="T712" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="713">
@@ -21411,16 +21414,16 @@
         <v>392</v>
       </c>
       <c r="E713" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F713" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G713" s="80" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H713" s="80" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="I713" s="80" t="s">
         <v>37</v>
@@ -21429,7 +21432,7 @@
         <v>388</v>
       </c>
       <c r="T713" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="714">
@@ -21437,17 +21440,17 @@
         <v>392</v>
       </c>
       <c r="E714" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F714" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G714" s="80" t="s">
+        <v>920</v>
+      </c>
+      <c r="H714" s="80" t="s">
         <v>919</v>
       </c>
-      <c r="H714" s="80" t="s">
-        <v>918</v>
-      </c>
       <c r="I714" s="80" t="s">
         <v>37</v>
       </c>
@@ -21455,7 +21458,7 @@
         <v>388</v>
       </c>
       <c r="T714" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="715">
@@ -21463,16 +21466,16 @@
         <v>392</v>
       </c>
       <c r="E715" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F715" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G715" s="80" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="H715" s="80" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="I715" s="80" t="s">
         <v>37</v>
@@ -21481,7 +21484,7 @@
         <v>388</v>
       </c>
       <c r="T715" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="716">
@@ -21489,17 +21492,17 @@
         <v>392</v>
       </c>
       <c r="E716" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F716" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G716" s="80" t="s">
+        <v>923</v>
+      </c>
+      <c r="H716" s="80" t="s">
         <v>922</v>
       </c>
-      <c r="H716" s="80" t="s">
-        <v>921</v>
-      </c>
       <c r="I716" s="80" t="s">
         <v>37</v>
       </c>
@@ -21507,7 +21510,7 @@
         <v>388</v>
       </c>
       <c r="T716" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="717">
@@ -21515,16 +21518,16 @@
         <v>392</v>
       </c>
       <c r="E717" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F717" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G717" s="80" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H717" s="80" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="I717" s="80" t="s">
         <v>37</v>
@@ -21533,7 +21536,7 @@
         <v>388</v>
       </c>
       <c r="T717" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="718">
@@ -21541,13 +21544,13 @@
         <v>392</v>
       </c>
       <c r="E718" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F718" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G718" s="80" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="H718" s="80" t="s">
         <v>400</v>
@@ -21559,7 +21562,7 @@
         <v>388</v>
       </c>
       <c r="T718" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="719">
@@ -21567,13 +21570,13 @@
         <v>392</v>
       </c>
       <c r="E719" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F719" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G719" s="80" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H719" s="80" t="s">
         <v>400</v>
@@ -21585,7 +21588,7 @@
         <v>388</v>
       </c>
       <c r="T719" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="720">
@@ -21593,13 +21596,13 @@
         <v>392</v>
       </c>
       <c r="E720" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F720" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G720" s="80" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H720" s="80" t="s">
         <v>400</v>
@@ -21611,7 +21614,7 @@
         <v>388</v>
       </c>
       <c r="T720" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="721">
@@ -21619,13 +21622,13 @@
         <v>392</v>
       </c>
       <c r="E721" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F721" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G721" s="80" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H721" s="80" t="s">
         <v>400</v>
@@ -21637,7 +21640,7 @@
         <v>388</v>
       </c>
       <c r="T721" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="722">
@@ -21645,13 +21648,13 @@
         <v>392</v>
       </c>
       <c r="E722" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F722" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G722" s="80" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="H722" s="80" t="s">
         <v>400</v>
@@ -21663,7 +21666,7 @@
         <v>388</v>
       </c>
       <c r="T722" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="723">
@@ -21671,13 +21674,13 @@
         <v>392</v>
       </c>
       <c r="E723" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F723" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G723" s="80" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H723" s="80" t="s">
         <v>400</v>
@@ -21689,7 +21692,7 @@
         <v>388</v>
       </c>
       <c r="T723" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="724">
@@ -21697,13 +21700,13 @@
         <v>392</v>
       </c>
       <c r="E724" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F724" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G724" s="80" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H724" s="80" t="s">
         <v>400</v>
@@ -21715,7 +21718,7 @@
         <v>388</v>
       </c>
       <c r="T724" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="725">
@@ -21723,13 +21726,13 @@
         <v>392</v>
       </c>
       <c r="E725" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F725" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G725" s="80" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H725" s="80" t="s">
         <v>400</v>
@@ -21741,7 +21744,7 @@
         <v>388</v>
       </c>
       <c r="T725" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="726">
@@ -21749,16 +21752,16 @@
         <v>392</v>
       </c>
       <c r="E726" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F726" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G726" s="80" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="H726" s="80" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="I726" s="80" t="s">
         <v>37</v>
@@ -21767,7 +21770,7 @@
         <v>388</v>
       </c>
       <c r="T726" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="727">
@@ -21775,16 +21778,16 @@
         <v>392</v>
       </c>
       <c r="E727" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F727" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G727" s="80" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H727" s="80" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I727" s="80" t="s">
         <v>37</v>
@@ -21793,7 +21796,7 @@
         <v>388</v>
       </c>
       <c r="T727" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="728">
@@ -21801,13 +21804,13 @@
         <v>392</v>
       </c>
       <c r="E728" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F728" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G728" s="80" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H728" s="80" t="s">
         <v>400</v>
@@ -21819,7 +21822,7 @@
         <v>388</v>
       </c>
       <c r="T728" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="729">
@@ -21827,13 +21830,13 @@
         <v>392</v>
       </c>
       <c r="E729" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F729" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G729" s="80" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H729" s="80" t="s">
         <v>400</v>
@@ -21845,7 +21848,7 @@
         <v>388</v>
       </c>
       <c r="T729" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="730">
@@ -21853,13 +21856,13 @@
         <v>392</v>
       </c>
       <c r="E730" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F730" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G730" s="80" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H730" s="80" t="s">
         <v>400</v>
@@ -21871,7 +21874,7 @@
         <v>388</v>
       </c>
       <c r="T730" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="731">
@@ -21879,13 +21882,13 @@
         <v>392</v>
       </c>
       <c r="E731" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F731" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G731" s="80" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H731" s="80" t="s">
         <v>400</v>
@@ -21897,7 +21900,7 @@
         <v>388</v>
       </c>
       <c r="T731" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="732">
@@ -21905,13 +21908,13 @@
         <v>392</v>
       </c>
       <c r="E732" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F732" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G732" s="80" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H732" s="80" t="s">
         <v>400</v>
@@ -21923,7 +21926,7 @@
         <v>388</v>
       </c>
       <c r="T732" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="733">
@@ -21931,13 +21934,13 @@
         <v>392</v>
       </c>
       <c r="E733" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F733" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G733" s="80" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H733" s="80" t="s">
         <v>400</v>
@@ -21949,7 +21952,7 @@
         <v>388</v>
       </c>
       <c r="T733" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="734">
@@ -21957,13 +21960,13 @@
         <v>392</v>
       </c>
       <c r="E734" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F734" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G734" s="80" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H734" s="80" t="s">
         <v>400</v>
@@ -21975,7 +21978,7 @@
         <v>388</v>
       </c>
       <c r="T734" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="735">
@@ -21983,16 +21986,16 @@
         <v>392</v>
       </c>
       <c r="E735" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F735" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G735" s="80" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H735" s="80" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I735" s="80" t="s">
         <v>37</v>
@@ -22001,7 +22004,7 @@
         <v>388</v>
       </c>
       <c r="T735" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="736">
@@ -22009,13 +22012,13 @@
         <v>392</v>
       </c>
       <c r="E736" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F736" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G736" s="80" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H736" s="80" t="s">
         <v>400</v>
@@ -22027,7 +22030,7 @@
         <v>388</v>
       </c>
       <c r="T736" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="737">
@@ -22035,13 +22038,13 @@
         <v>392</v>
       </c>
       <c r="E737" s="80" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F737" s="80" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G737" s="80" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H737" s="80" t="s">
         <v>706</v>
@@ -22053,7 +22056,7 @@
         <v>388</v>
       </c>
       <c r="T737" s="79" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="738" spans="1:20">
